--- a/results/ComputanionalResults_MaxCut.xlsx
+++ b/results/ComputanionalResults_MaxCut.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\maxCutParallel\maxCutResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\ParallelScatterSearch\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A55C1B-E9D4-4B9D-A469-70D73B3E7CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A8BDB-CA06-4D36-BCA5-98DE5EE6DC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B82BDA6E-91C4-C942-B3D8-E7D5083C3A9D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="120">
   <si>
     <t>Instance</t>
   </si>
@@ -310,9 +310,6 @@
     <t>set2</t>
   </si>
   <si>
-    <t>set3</t>
-  </si>
-  <si>
     <t>G10100.mc</t>
   </si>
   <si>
@@ -403,18 +400,6 @@
     <t>G54900.mc</t>
   </si>
   <si>
-    <t>toursg3-15</t>
-  </si>
-  <si>
-    <t>toursg3-8</t>
-  </si>
-  <si>
-    <t>tourspm3-15-50</t>
-  </si>
-  <si>
-    <t>tourspm3-8-50</t>
-  </si>
-  <si>
     <t>Avg. OF</t>
   </si>
 </sst>
@@ -497,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,7 +490,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -517,10 +501,20 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F38325F-52DE-4942-9D6C-56A8A107A45E}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -851,441 +845,416 @@
     <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f>AVERAGE('SS1'!B5:B58)</f>
         <v>5121.0740740740739</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>AVERAGE('SS1'!C5:C58)</f>
         <v>5106.3518518518522</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>AVERAGE('SS1'!D5:D58)</f>
         <v>30.339804624649705</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>AVERAGE('SS1'!E5:E58)</f>
         <v>910.60017222222245</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>SUM('SS1'!F5:F58)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>AVERAGE('SS1'!G5:G58)</f>
         <v>1.030559146161157E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>AVERAGE(HPSS!B6:B59)</f>
         <v>5114.833333333333</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>AVERAGE(HPSS!C6:C59)</f>
         <v>5097.1462962962969</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>AVERAGE(HPSS!D6:D59)</f>
         <v>13.529806678884697</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>AVERAGE(HPSS!E6:E59)</f>
         <v>408.59189629629628</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>SUM(HPSS!F6:F59)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f>AVERAGE(HPSS!G6:G59)</f>
         <v>1.2640114937308211E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <f>AVERAGE(APSS!B6:B59)</f>
         <v>5149.9074074074078</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>AVERAGE(APSS!C6:C59)</f>
         <v>5132.4685185185172</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>AVERAGE(APSS!D6:D59)</f>
         <v>17.923791717087244</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f>AVERAGE(APSS!E6:E59)</f>
         <v>1283.9908888888892</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f>SUM(APSS!F6:F59)</f>
         <v>41</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f>AVERAGE(APSS!G6:G59)</f>
         <v>7.3794780580425663E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>AVERAGE(CPSS!B6:B59)</f>
         <v>5106.5185185185182</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>AVERAGE(CPSS!C6:C59)</f>
         <v>5089.2425925925936</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>AVERAGE(CPSS!D6:D59)</f>
         <v>1.8202524576442041</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>AVERAGE(CPSS!E6:E59)</f>
         <v>1760.4411777777784</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>SUM(CPSS!F6:F59)</f>
         <v>16</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>AVERAGE(CPSS!G6:G59)</f>
         <v>1.1176966347729023E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f>AVERAGE('SS1'!B59:B88)</f>
         <v>1105</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f>AVERAGE('SS1'!C59:C88)</f>
         <v>1099.6733333333334</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f>AVERAGE('SS1'!D59:D88)</f>
         <v>3.316986778337359</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>AVERAGE('SS1'!E59:E88)</f>
         <v>656.68709333333345</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f>SUM('SS1'!F59:F88)</f>
         <v>16</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f>AVERAGE('SS1'!G59:G88)</f>
         <v>3.0773061411637909E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f>AVERAGE(HPSS!B60:B89)</f>
         <v>1101.4666666666667</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f>AVERAGE(HPSS!C60:C89)</f>
         <v>1094.8866666666665</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f>AVERAGE(HPSS!D60:D89)</f>
         <v>8.9737951585089082</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>AVERAGE(HPSS!E60:E89)</f>
         <v>270.38952999999998</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f>SUM(HPSS!F60:F89)</f>
         <v>12</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f>AVERAGE(HPSS!G60:G89)</f>
         <v>5.9728090022699949E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <f>AVERAGE(APSS!B60:B89)</f>
         <v>1105.2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>AVERAGE(APSS!C60:C89)</f>
         <v>1097.1266666666668</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>AVERAGE(APSS!D60:D89)</f>
         <v>4.7548214576007997</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>AVERAGE(APSS!E60:E89)</f>
         <v>698.40357000000017</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f>SUM(APSS!F60:F89)</f>
         <v>20</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f>AVERAGE(APSS!G60:G89)</f>
         <v>1.1316405561922346E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f>AVERAGE(CPSS!B60:B89)</f>
         <v>1081.8</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f>AVERAGE(CPSS!C60:C89)</f>
         <v>1073.7866666666666</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>AVERAGE(CPSS!D60:D89)</f>
         <v>13.911008541886897</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f>AVERAGE(CPSS!E60:E89)</f>
         <v>1139.5383800000002</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f>SUM(CPSS!F60:F89)</f>
         <v>13</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f>AVERAGE(CPSS!G60:G89)</f>
         <v>1.1689959675951567E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8">
-        <f>AVERAGE('SS1'!B89:B92)</f>
-        <v>74173747.25</v>
-      </c>
-      <c r="D17" s="8">
-        <f>AVERAGE('SS1'!C89:C92)</f>
-        <v>72896249.250000015</v>
-      </c>
-      <c r="E17" s="12">
-        <f>AVERAGE('SS1'!D89:D92)</f>
-        <v>0.90202402662446213</v>
-      </c>
-      <c r="F17" s="8">
-        <f>AVERAGE('SS1'!E89:E92)</f>
-        <v>920.74877499999991</v>
-      </c>
-      <c r="G17" s="10">
-        <f>SUM('SS1'!F89:F92)</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="15">
-        <f>AVERAGE('SS1'!G89:G92)</f>
-        <v>3.5488069229935491E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8">
-        <f>AVERAGE(HPSS!B90:B93)</f>
-        <v>74226433.5</v>
-      </c>
-      <c r="D18" s="8">
-        <f>AVERAGE(HPSS!C90:C93)</f>
-        <v>73982471.950000003</v>
-      </c>
-      <c r="E18" s="8">
-        <f>AVERAGE(HPSS!D90:D93)</f>
-        <v>7.8651813080997641</v>
-      </c>
-      <c r="F18" s="12">
-        <f>AVERAGE(HPSS!E90:E93)</f>
-        <v>800.58249999999998</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(HPSS!F90:F93)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <f>AVERAGE(HPSS!G90:G93)</f>
-        <v>3.8015920480505359E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="12">
-        <f>AVERAGE(APSS!B90:B93)</f>
-        <v>77537340.75</v>
-      </c>
-      <c r="D19" s="12">
-        <f>AVERAGE(APSS!C90:C93)</f>
-        <v>77158707.349999994</v>
-      </c>
-      <c r="E19" s="8">
-        <f>AVERAGE(APSS!D90:D93)</f>
-        <v>1.1580682765139536</v>
-      </c>
-      <c r="F19" s="8">
-        <f>AVERAGE(APSS!E90:E93)</f>
-        <v>935.86379999999997</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SUM(APSS!F90:F93)</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <f>AVERAGE(APSS!G90:G93)</f>
-        <v>3.9497731501657689E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8">
-        <f>AVERAGE(CPSS!B90:B93)</f>
-        <v>76197461.25</v>
-      </c>
-      <c r="D20" s="8">
-        <f>AVERAGE(CPSS!C90:C93)</f>
-        <v>75536980.875</v>
-      </c>
-      <c r="E20" s="8">
-        <f>AVERAGE(CPSS!D90:D93)</f>
-        <v>5.5319076146938784</v>
-      </c>
-      <c r="F20" s="8">
-        <f>AVERAGE(CPSS!E90:E93)</f>
-        <v>1104.6886500000003</v>
-      </c>
-      <c r="G20" s="13">
-        <f>SUM(CPSS!F90:F93)</f>
-        <v>2</v>
-      </c>
-      <c r="H20" s="15">
-        <f>AVERAGE(CPSS!G90:G93)</f>
-        <v>1.9114360716011854E-2</v>
-      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1299,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9258A1AB-8566-DE43-A511-F330505C30BA}">
-  <dimension ref="A2:B90"/>
+  <dimension ref="A2:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:A90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1861,7 +1830,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1">
         <f>MAX('SS1'!B59,HPSS!B60,APSS!B60,CPSS!B60)</f>
@@ -1870,7 +1839,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1">
         <f>MAX('SS1'!B60,HPSS!B61,APSS!B61,CPSS!B61)</f>
@@ -1879,7 +1848,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1">
         <f>MAX('SS1'!B61,HPSS!B62,APSS!B62,CPSS!B62)</f>
@@ -1888,7 +1857,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1">
         <f>MAX('SS1'!B62,HPSS!B63,APSS!B63,CPSS!B63)</f>
@@ -1897,7 +1866,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1">
         <f>MAX('SS1'!B63,HPSS!B64,APSS!B64,CPSS!B64)</f>
@@ -1906,7 +1875,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1">
         <f>MAX('SS1'!B64,HPSS!B65,APSS!B65,CPSS!B65)</f>
@@ -1915,7 +1884,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1">
         <f>MAX('SS1'!B65,HPSS!B66,APSS!B66,CPSS!B66)</f>
@@ -1924,7 +1893,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="1">
         <f>MAX('SS1'!B66,HPSS!B67,APSS!B67,CPSS!B67)</f>
@@ -1933,7 +1902,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1">
         <f>MAX('SS1'!B67,HPSS!B68,APSS!B68,CPSS!B68)</f>
@@ -1942,7 +1911,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66" s="1">
         <f>MAX('SS1'!B68,HPSS!B69,APSS!B69,CPSS!B69)</f>
@@ -1951,7 +1920,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1">
         <f>MAX('SS1'!B69,HPSS!B70,APSS!B70,CPSS!B70)</f>
@@ -1960,7 +1929,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="1">
         <f>MAX('SS1'!B70,HPSS!B71,APSS!B71,CPSS!B71)</f>
@@ -1969,7 +1938,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="1">
         <f>MAX('SS1'!B71,HPSS!B72,APSS!B72,CPSS!B72)</f>
@@ -1978,7 +1947,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" s="1">
         <f>MAX('SS1'!B72,HPSS!B73,APSS!B73,CPSS!B73)</f>
@@ -1987,7 +1956,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="1">
         <f>MAX('SS1'!B73,HPSS!B74,APSS!B74,CPSS!B74)</f>
@@ -1996,7 +1965,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="1">
         <f>MAX('SS1'!B74,HPSS!B75,APSS!B75,CPSS!B75)</f>
@@ -2005,7 +1974,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1">
         <f>MAX('SS1'!B75,HPSS!B76,APSS!B76,CPSS!B76)</f>
@@ -2014,7 +1983,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="1">
         <f>MAX('SS1'!B76,HPSS!B77,APSS!B77,CPSS!B77)</f>
@@ -2023,7 +1992,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1">
         <f>MAX('SS1'!B77,HPSS!B78,APSS!B78,CPSS!B78)</f>
@@ -2032,7 +2001,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="1">
         <f>MAX('SS1'!B78,HPSS!B79,APSS!B79,CPSS!B79)</f>
@@ -2041,7 +2010,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" s="1">
         <f>MAX('SS1'!B79,HPSS!B80,APSS!B80,CPSS!B80)</f>
@@ -2050,7 +2019,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" s="1">
         <f>MAX('SS1'!B80,HPSS!B81,APSS!B81,CPSS!B81)</f>
@@ -2059,7 +2028,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79" s="1">
         <f>MAX('SS1'!B81,HPSS!B82,APSS!B82,CPSS!B82)</f>
@@ -2068,7 +2037,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" s="1">
         <f>MAX('SS1'!B82,HPSS!B83,APSS!B83,CPSS!B83)</f>
@@ -2077,7 +2046,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" s="1">
         <f>MAX('SS1'!B83,HPSS!B84,APSS!B84,CPSS!B84)</f>
@@ -2086,7 +2055,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" s="1">
         <f>MAX('SS1'!B84,HPSS!B85,APSS!B85,CPSS!B85)</f>
@@ -2095,7 +2064,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" s="1">
         <f>MAX('SS1'!B85,HPSS!B86,APSS!B86,CPSS!B86)</f>
@@ -2104,7 +2073,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" s="1">
         <f>MAX('SS1'!B86,HPSS!B87,APSS!B87,CPSS!B87)</f>
@@ -2113,7 +2082,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" s="1">
         <f>MAX('SS1'!B87,HPSS!B88,APSS!B88,CPSS!B88)</f>
@@ -2122,47 +2091,11 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="1">
         <f>MAX('SS1'!B88,HPSS!B89,APSS!B89,CPSS!B89)</f>
         <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" s="1">
-        <f>MAX('SS1'!B89,HPSS!B90,APSS!B90,CPSS!B90)</f>
-        <v>269030731</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="1">
-        <f>MAX('SS1'!B90,HPSS!B91,APSS!B91,CPSS!B91)</f>
-        <v>41213350</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="1">
-        <f>MAX('SS1'!B91,HPSS!B92,APSS!B92,CPSS!B92)</f>
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="1">
-        <f>MAX('SS1'!B92,HPSS!B93,APSS!B93,CPSS!B93)</f>
-        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B04759-74E1-D448-932D-1B0892BD71FD}">
-  <dimension ref="A3:AB92"/>
+  <dimension ref="A3:AB88"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2190,11 +2123,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -7091,7 +7024,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" ref="B59:B88" si="4">MAX(I59,K59,M59,O59,Q59,S59,U59,W59,Y59,AA59)</f>
@@ -7180,7 +7113,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="4"/>
@@ -7269,7 +7202,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="4"/>
@@ -7358,7 +7291,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="4"/>
@@ -7447,7 +7380,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="4"/>
@@ -7536,7 +7469,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="4"/>
@@ -7625,7 +7558,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="4"/>
@@ -7714,7 +7647,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="4"/>
@@ -7803,7 +7736,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="4"/>
@@ -7892,7 +7825,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="4"/>
@@ -7981,7 +7914,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="4"/>
@@ -8070,7 +8003,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="4"/>
@@ -8159,7 +8092,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
@@ -8248,7 +8181,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
@@ -8337,7 +8270,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
@@ -8426,7 +8359,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
@@ -8515,7 +8448,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
@@ -8604,7 +8537,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
@@ -8693,7 +8626,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
@@ -8782,7 +8715,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
@@ -8871,7 +8804,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
@@ -8960,7 +8893,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
@@ -9049,7 +8982,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
@@ -9138,7 +9071,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
@@ -9227,7 +9160,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
@@ -9316,7 +9249,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
@@ -9405,7 +9338,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
@@ -9494,7 +9427,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
@@ -9583,7 +9516,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
@@ -9672,7 +9605,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
@@ -9757,362 +9690,6 @@
       </c>
       <c r="AB88">
         <v>2.0619999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="1">
-        <f t="shared" ref="B89:B92" si="8">MAX(I89,K89,M89,O89,Q89,S89,U89,W89,Y89,AA89)</f>
-        <v>258648887</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" ref="C89:C92" si="9">AVERAGE(I89,K89,M89,O89,Q89,S89,U89,W89,Y89,AA89)</f>
-        <v>253976874</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" ref="D89:D92" si="10">STDEV(J89,L89,N89,P89,R89,T89,V89,X89,Z89,AB89)</f>
-        <v>3.0674093303626956E-2</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" ref="E89:E92" si="11">AVERAGE(J89,L89,N89,P89,R89,T89,V89,X89,Z89,AB89)</f>
-        <v>1800.0107</v>
-      </c>
-      <c r="F89" s="4">
-        <f>IF(B89='Global Best'!$B87,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <f>('Global Best'!$B87-'SS1'!B89)/'Global Best'!$B87</f>
-        <v>3.8589807050704555E-2</v>
-      </c>
-      <c r="I89" s="5">
-        <v>258648887</v>
-      </c>
-      <c r="J89">
-        <v>1800.001</v>
-      </c>
-      <c r="K89" s="5">
-        <v>252393300</v>
-      </c>
-      <c r="L89">
-        <v>1800.001</v>
-      </c>
-      <c r="M89" s="5">
-        <v>252062101</v>
-      </c>
-      <c r="N89">
-        <v>1800.001</v>
-      </c>
-      <c r="O89" s="5">
-        <v>253570496</v>
-      </c>
-      <c r="P89">
-        <v>1800.001</v>
-      </c>
-      <c r="Q89" s="5">
-        <v>251677180</v>
-      </c>
-      <c r="R89">
-        <v>1800.001</v>
-      </c>
-      <c r="S89" s="5">
-        <v>255396947</v>
-      </c>
-      <c r="T89">
-        <v>1800.098</v>
-      </c>
-      <c r="U89" s="5">
-        <v>258518653</v>
-      </c>
-      <c r="V89">
-        <v>1800.001</v>
-      </c>
-      <c r="W89" s="5">
-        <v>252587682</v>
-      </c>
-      <c r="X89">
-        <v>1800.001</v>
-      </c>
-      <c r="Y89" s="5">
-        <v>252919221</v>
-      </c>
-      <c r="Z89">
-        <v>1800.001</v>
-      </c>
-      <c r="AA89" s="5">
-        <v>251994273</v>
-      </c>
-      <c r="AB89">
-        <v>1800.001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" si="8"/>
-        <v>38042776</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" si="9"/>
-        <v>37604813.600000001</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3104352668322519</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" si="11"/>
-        <v>54.736699999999999</v>
-      </c>
-      <c r="F90" s="4">
-        <f>IF(B90='Global Best'!$B88,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="1">
-        <f>('Global Best'!$B88-'SS1'!B90)/'Global Best'!$B88</f>
-        <v>7.693075180736339E-2</v>
-      </c>
-      <c r="I90" s="5">
-        <v>38042776</v>
-      </c>
-      <c r="J90">
-        <v>53.636000000000003</v>
-      </c>
-      <c r="K90" s="5">
-        <v>37705946</v>
-      </c>
-      <c r="L90">
-        <v>55.500999999999998</v>
-      </c>
-      <c r="M90" s="5">
-        <v>37505437</v>
-      </c>
-      <c r="N90">
-        <v>55.307000000000002</v>
-      </c>
-      <c r="O90" s="5">
-        <v>37519834</v>
-      </c>
-      <c r="P90">
-        <v>57.86</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>37488494</v>
-      </c>
-      <c r="R90">
-        <v>52.258000000000003</v>
-      </c>
-      <c r="S90" s="5">
-        <v>37842884</v>
-      </c>
-      <c r="T90">
-        <v>54.539000000000001</v>
-      </c>
-      <c r="U90" s="5">
-        <v>37507609</v>
-      </c>
-      <c r="V90">
-        <v>53.218000000000004</v>
-      </c>
-      <c r="W90" s="5">
-        <v>37384571</v>
-      </c>
-      <c r="X90">
-        <v>51.908000000000001</v>
-      </c>
-      <c r="Y90" s="5">
-        <v>37585356</v>
-      </c>
-      <c r="Z90">
-        <v>54.024999999999999</v>
-      </c>
-      <c r="AA90" s="5">
-        <v>37465229</v>
-      </c>
-      <c r="AB90">
-        <v>59.115000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="1">
-        <f t="shared" si="8"/>
-        <v>2884</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="9"/>
-        <v>2869.6</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0357865537617591E-2</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="11"/>
-        <v>1800.0106000000001</v>
-      </c>
-      <c r="F91" s="4">
-        <f>IF(B91='Global Best'!$B89,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G91" s="1">
-        <f>('Global Best'!$B89-'SS1'!B91)/'Global Best'!$B89</f>
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>2874</v>
-      </c>
-      <c r="J91">
-        <v>1800.001</v>
-      </c>
-      <c r="K91">
-        <v>2866</v>
-      </c>
-      <c r="L91">
-        <v>1800.001</v>
-      </c>
-      <c r="M91">
-        <v>2868</v>
-      </c>
-      <c r="N91">
-        <v>1800.001</v>
-      </c>
-      <c r="O91">
-        <v>2868</v>
-      </c>
-      <c r="P91">
-        <v>1800.001</v>
-      </c>
-      <c r="Q91">
-        <v>2872</v>
-      </c>
-      <c r="R91">
-        <v>1800.001</v>
-      </c>
-      <c r="S91">
-        <v>2884</v>
-      </c>
-      <c r="T91">
-        <v>1800.001</v>
-      </c>
-      <c r="U91">
-        <v>2866</v>
-      </c>
-      <c r="V91">
-        <v>1800.097</v>
-      </c>
-      <c r="W91">
-        <v>2866</v>
-      </c>
-      <c r="X91">
-        <v>1800.001</v>
-      </c>
-      <c r="Y91">
-        <v>2868</v>
-      </c>
-      <c r="Z91">
-        <v>1800.001</v>
-      </c>
-      <c r="AA91">
-        <v>2864</v>
-      </c>
-      <c r="AB91">
-        <v>1800.001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="1">
-        <f t="shared" si="8"/>
-        <v>442</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="9"/>
-        <v>439.8</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2366288808243524</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="11"/>
-        <v>28.237100000000005</v>
-      </c>
-      <c r="F92" s="4">
-        <f>IF(B92='Global Best'!$B90,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <f>('Global Best'!$B90-'SS1'!B92)/'Global Best'!$B90</f>
-        <v>2.643171806167401E-2</v>
-      </c>
-      <c r="I92">
-        <v>440</v>
-      </c>
-      <c r="J92">
-        <v>30.138000000000002</v>
-      </c>
-      <c r="K92">
-        <v>440</v>
-      </c>
-      <c r="L92">
-        <v>29.228000000000002</v>
-      </c>
-      <c r="M92">
-        <v>440</v>
-      </c>
-      <c r="N92">
-        <v>27.221</v>
-      </c>
-      <c r="O92">
-        <v>442</v>
-      </c>
-      <c r="P92">
-        <v>26.896000000000001</v>
-      </c>
-      <c r="Q92">
-        <v>438</v>
-      </c>
-      <c r="R92">
-        <v>29.321999999999999</v>
-      </c>
-      <c r="S92">
-        <v>442</v>
-      </c>
-      <c r="T92">
-        <v>26.867999999999999</v>
-      </c>
-      <c r="U92">
-        <v>438</v>
-      </c>
-      <c r="V92">
-        <v>29.122</v>
-      </c>
-      <c r="W92">
-        <v>440</v>
-      </c>
-      <c r="X92">
-        <v>27.06</v>
-      </c>
-      <c r="Y92">
-        <v>438</v>
-      </c>
-      <c r="Z92">
-        <v>27.510999999999999</v>
-      </c>
-      <c r="AA92">
-        <v>440</v>
-      </c>
-      <c r="AB92">
-        <v>29.004999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10125,10 +9702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29509C22-0ED8-124E-9EB8-54906F63D29E}">
-  <dimension ref="A4:AB93"/>
+  <dimension ref="A4:AB89"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10137,11 +9714,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15037,7 +14614,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" ref="B60:B89" si="4">MAX(I60,K60,M60,O60,Q60,S60,U60,W60,Y60,AA60)</f>
@@ -15126,7 +14703,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="4"/>
@@ -15215,7 +14792,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="4"/>
@@ -15304,7 +14881,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="4"/>
@@ -15393,7 +14970,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="4"/>
@@ -15482,7 +15059,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="4"/>
@@ -15571,7 +15148,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="4"/>
@@ -15660,7 +15237,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="4"/>
@@ -15749,7 +15326,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="4"/>
@@ -15838,7 +15415,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="4"/>
@@ -15927,7 +15504,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="4"/>
@@ -16016,7 +15593,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
@@ -16105,7 +15682,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
@@ -16194,7 +15771,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
@@ -16283,7 +15860,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
@@ -16372,7 +15949,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
@@ -16461,7 +16038,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
@@ -16550,7 +16127,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
@@ -16639,7 +16216,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
@@ -16728,7 +16305,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
@@ -16817,7 +16394,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
@@ -16906,7 +16483,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
@@ -16995,7 +16572,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
@@ -17084,7 +16661,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
@@ -17173,7 +16750,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
@@ -17262,7 +16839,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
@@ -17351,7 +16928,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
@@ -17440,7 +17017,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
@@ -17529,7 +17106,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
@@ -17618,7 +17195,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="4"/>
@@ -17703,362 +17280,6 @@
       </c>
       <c r="AB89">
         <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" ref="B90:B93" si="8">MAX(I90,K90,M90,O90,Q90,S90,U90,W90,Y90,AA90)</f>
-        <v>259322372</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" ref="C90:C93" si="9">AVERAGE(I90,K90,M90,O90,Q90,S90,U90,W90,Y90,AA90)</f>
-        <v>258626426.40000001</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ref="D90:D93" si="10">STDEV(J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90)</f>
-        <v>0.21428070893625414</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" ref="E90:E93" si="11">AVERAGE(J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90)</f>
-        <v>1800.2540000000001</v>
-      </c>
-      <c r="F90" s="1">
-        <f>IF(B90='Global Best'!$B87,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <f>('Global Best'!$B87-B90)/'Global Best'!$B87</f>
-        <v>3.6086431330404407E-2</v>
-      </c>
-      <c r="I90" s="5">
-        <v>258873590</v>
-      </c>
-      <c r="J90">
-        <v>1800.683</v>
-      </c>
-      <c r="K90" s="5">
-        <v>258491312</v>
-      </c>
-      <c r="L90">
-        <v>1800.184</v>
-      </c>
-      <c r="M90" s="5">
-        <v>258036724</v>
-      </c>
-      <c r="N90">
-        <v>1800.001</v>
-      </c>
-      <c r="O90" s="5">
-        <v>259322372</v>
-      </c>
-      <c r="P90">
-        <v>1800.34</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>259088684</v>
-      </c>
-      <c r="R90">
-        <v>1800.3430000000001</v>
-      </c>
-      <c r="S90" s="5">
-        <v>259031791</v>
-      </c>
-      <c r="T90">
-        <v>1800.335</v>
-      </c>
-      <c r="U90" s="5">
-        <v>259043436</v>
-      </c>
-      <c r="V90">
-        <v>1800.33</v>
-      </c>
-      <c r="W90" s="5">
-        <v>258312219</v>
-      </c>
-      <c r="X90">
-        <v>1800.3219999999999</v>
-      </c>
-      <c r="Y90" s="5">
-        <v>258369936</v>
-      </c>
-      <c r="Z90">
-        <v>1800.001</v>
-      </c>
-      <c r="AA90" s="5">
-        <v>257694200</v>
-      </c>
-      <c r="AB90">
-        <v>1800.001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="1">
-        <f t="shared" si="8"/>
-        <v>37580040</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="9"/>
-        <v>37300154.600000001</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="10"/>
-        <v>0.40770666197920102</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="11"/>
-        <v>12.413500000000001</v>
-      </c>
-      <c r="F91" s="1">
-        <f>IF(B91='Global Best'!$B88,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <f>('Global Best'!$B88-B91)/'Global Best'!$B88</f>
-        <v>8.8158569977931908E-2</v>
-      </c>
-      <c r="I91" s="5">
-        <v>37417380</v>
-      </c>
-      <c r="J91">
-        <v>12.555999999999999</v>
-      </c>
-      <c r="K91" s="5">
-        <v>37580040</v>
-      </c>
-      <c r="L91">
-        <v>12.845000000000001</v>
-      </c>
-      <c r="M91" s="5">
-        <v>36965956</v>
-      </c>
-      <c r="N91">
-        <v>12.032999999999999</v>
-      </c>
-      <c r="O91" s="5">
-        <v>37367002</v>
-      </c>
-      <c r="P91">
-        <v>13.016</v>
-      </c>
-      <c r="Q91" s="5">
-        <v>37090651</v>
-      </c>
-      <c r="R91">
-        <v>12.288</v>
-      </c>
-      <c r="S91" s="5">
-        <v>37367100</v>
-      </c>
-      <c r="T91">
-        <v>12.473000000000001</v>
-      </c>
-      <c r="U91" s="5">
-        <v>37447799</v>
-      </c>
-      <c r="V91">
-        <v>12.412000000000001</v>
-      </c>
-      <c r="W91" s="5">
-        <v>37231700</v>
-      </c>
-      <c r="X91">
-        <v>12.381</v>
-      </c>
-      <c r="Y91" s="5">
-        <v>37180320</v>
-      </c>
-      <c r="Z91">
-        <v>11.555999999999999</v>
-      </c>
-      <c r="AA91" s="5">
-        <v>37353598</v>
-      </c>
-      <c r="AB91">
-        <v>12.574999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="1">
-        <f t="shared" si="8"/>
-        <v>2880</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="9"/>
-        <v>2868.6</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="10"/>
-        <v>30.511890819445757</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="11"/>
-        <v>1377.5344</v>
-      </c>
-      <c r="F92" s="1">
-        <f>IF(B92='Global Best'!$B89,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <f>('Global Best'!$B89-B92)/'Global Best'!$B89</f>
-        <v>1.3869625520110957E-3</v>
-      </c>
-      <c r="I92">
-        <v>2856</v>
-      </c>
-      <c r="J92">
-        <v>1357.6030000000001</v>
-      </c>
-      <c r="K92">
-        <v>2866</v>
-      </c>
-      <c r="L92">
-        <v>1353.6769999999999</v>
-      </c>
-      <c r="M92">
-        <v>2870</v>
-      </c>
-      <c r="N92">
-        <v>1417.944</v>
-      </c>
-      <c r="O92">
-        <v>2866</v>
-      </c>
-      <c r="P92">
-        <v>1359.299</v>
-      </c>
-      <c r="Q92">
-        <v>2878</v>
-      </c>
-      <c r="R92">
-        <v>1360.654</v>
-      </c>
-      <c r="S92">
-        <v>2876</v>
-      </c>
-      <c r="T92">
-        <v>1422.2650000000001</v>
-      </c>
-      <c r="U92">
-        <v>2864</v>
-      </c>
-      <c r="V92">
-        <v>1365.1790000000001</v>
-      </c>
-      <c r="W92">
-        <v>2870</v>
-      </c>
-      <c r="X92">
-        <v>1360.865</v>
-      </c>
-      <c r="Y92">
-        <v>2860</v>
-      </c>
-      <c r="Z92">
-        <v>1353.78</v>
-      </c>
-      <c r="AA92">
-        <v>2880</v>
-      </c>
-      <c r="AB92">
-        <v>1424.078</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="1">
-        <f t="shared" si="8"/>
-        <v>442</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="9"/>
-        <v>438.2</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="10"/>
-        <v>0.32684704203784509</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="11"/>
-        <v>12.1281</v>
-      </c>
-      <c r="F93" s="1">
-        <f>IF(B93='Global Best'!$B90,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <f>('Global Best'!$B90-B93)/'Global Best'!$B90</f>
-        <v>2.643171806167401E-2</v>
-      </c>
-      <c r="I93">
-        <v>442</v>
-      </c>
-      <c r="J93">
-        <v>12.166</v>
-      </c>
-      <c r="K93">
-        <v>438</v>
-      </c>
-      <c r="L93">
-        <v>11.749000000000001</v>
-      </c>
-      <c r="M93">
-        <v>442</v>
-      </c>
-      <c r="N93">
-        <v>12.237</v>
-      </c>
-      <c r="O93">
-        <v>438</v>
-      </c>
-      <c r="P93">
-        <v>12.096</v>
-      </c>
-      <c r="Q93">
-        <v>436</v>
-      </c>
-      <c r="R93">
-        <v>12.696</v>
-      </c>
-      <c r="S93">
-        <v>438</v>
-      </c>
-      <c r="T93">
-        <v>11.69</v>
-      </c>
-      <c r="U93">
-        <v>438</v>
-      </c>
-      <c r="V93">
-        <v>12.141</v>
-      </c>
-      <c r="W93">
-        <v>432</v>
-      </c>
-      <c r="X93">
-        <v>12.553000000000001</v>
-      </c>
-      <c r="Y93">
-        <v>438</v>
-      </c>
-      <c r="Z93">
-        <v>12.153</v>
-      </c>
-      <c r="AA93">
-        <v>440</v>
-      </c>
-      <c r="AB93">
-        <v>11.8</v>
       </c>
     </row>
   </sheetData>
@@ -18071,10 +17292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38353B09-C2B7-C44E-91D6-F401C5A4C636}">
-  <dimension ref="A4:AB134"/>
+  <dimension ref="A4:AB89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:AB40"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -18084,11 +17305,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -22984,7 +22205,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" ref="B60:B89" si="4">MAX(I60,K60,M60,O60,Q60,S60,U60,W60,Y60,AA60)</f>
@@ -23073,7 +22294,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="4"/>
@@ -23162,7 +22383,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="4"/>
@@ -23251,7 +22472,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="4"/>
@@ -23340,7 +22561,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="4"/>
@@ -23429,7 +22650,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="4"/>
@@ -23518,7 +22739,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="4"/>
@@ -23607,7 +22828,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="4"/>
@@ -23696,7 +22917,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="4"/>
@@ -23785,7 +23006,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="4"/>
@@ -23874,7 +23095,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="4"/>
@@ -23963,7 +23184,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
@@ -24052,7 +23273,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
@@ -24141,7 +23362,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
@@ -24230,7 +23451,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
@@ -24319,7 +23540,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
@@ -24408,7 +23629,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
@@ -24497,7 +23718,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
@@ -24586,7 +23807,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
@@ -24675,7 +23896,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
@@ -24764,7 +23985,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
@@ -24853,7 +24074,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
@@ -24942,7 +24163,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
@@ -25031,7 +24252,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
@@ -25120,7 +24341,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
@@ -25209,7 +24430,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
@@ -25298,7 +24519,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
@@ -25387,7 +24608,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
@@ -25476,7 +24697,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
@@ -25565,7 +24786,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="4"/>
@@ -25650,2684 +24871,6 @@
       </c>
       <c r="AB89">
         <v>4.5780000000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" ref="B90:B93" si="8">MAX(I90,K90,M90,O90,Q90,S90,U90,W90,Y90,AA90)</f>
-        <v>269030731</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" ref="C90:C93" si="9">AVERAGE(I90,K90,M90,O90,Q90,S90,U90,W90,Y90,AA90)</f>
-        <v>268012933.5</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ref="D90:D93" si="10">STDEV(J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90)</f>
-        <v>0.18939684967459763</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" ref="E90:E93" si="11">AVERAGE(J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90)</f>
-        <v>1802.3715</v>
-      </c>
-      <c r="F90" s="1">
-        <f>IF(B90='Global Best'!$B87,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G90" s="3">
-        <f>('Global Best'!$B87-B90)/'Global Best'!$B87</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="5">
-        <v>269030731</v>
-      </c>
-      <c r="J90">
-        <v>1802.3209999999999</v>
-      </c>
-      <c r="K90" s="5">
-        <v>267850054</v>
-      </c>
-      <c r="L90">
-        <v>1802.2270000000001</v>
-      </c>
-      <c r="M90" s="5">
-        <v>268505875</v>
-      </c>
-      <c r="N90">
-        <v>1802.5840000000001</v>
-      </c>
-      <c r="O90" s="5">
-        <v>267634910</v>
-      </c>
-      <c r="P90">
-        <v>1802.14</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>267589760</v>
-      </c>
-      <c r="R90">
-        <v>1802.183</v>
-      </c>
-      <c r="S90" s="5">
-        <v>267857611</v>
-      </c>
-      <c r="T90">
-        <v>1802.18</v>
-      </c>
-      <c r="U90" s="5">
-        <v>267401844</v>
-      </c>
-      <c r="V90">
-        <v>1802.5319999999999</v>
-      </c>
-      <c r="W90" s="5">
-        <v>267570887</v>
-      </c>
-      <c r="X90">
-        <v>1802.3679999999999</v>
-      </c>
-      <c r="Y90" s="5">
-        <v>268772744</v>
-      </c>
-      <c r="Z90">
-        <v>1802.65</v>
-      </c>
-      <c r="AA90" s="5">
-        <v>267914919</v>
-      </c>
-      <c r="AB90">
-        <v>1802.53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="1">
-        <f t="shared" si="8"/>
-        <v>41115322</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="9"/>
-        <v>40618611.5</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="10"/>
-        <v>2.2779695369146431</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="11"/>
-        <v>81.729100000000003</v>
-      </c>
-      <c r="F91" s="1">
-        <f>IF(B91='Global Best'!$B88,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <f>('Global Best'!$B88-B91)/'Global Best'!$B88</f>
-        <v>2.3785496689786197E-3</v>
-      </c>
-      <c r="I91" s="5">
-        <v>40998896</v>
-      </c>
-      <c r="J91">
-        <v>82.16</v>
-      </c>
-      <c r="K91" s="5">
-        <v>40348069</v>
-      </c>
-      <c r="L91">
-        <v>77.760999999999996</v>
-      </c>
-      <c r="M91" s="5">
-        <v>40630801</v>
-      </c>
-      <c r="N91">
-        <v>81.545000000000002</v>
-      </c>
-      <c r="O91" s="5">
-        <v>40710747</v>
-      </c>
-      <c r="P91">
-        <v>86.228999999999999</v>
-      </c>
-      <c r="Q91" s="5">
-        <v>40790167</v>
-      </c>
-      <c r="R91">
-        <v>82.956999999999994</v>
-      </c>
-      <c r="S91" s="5">
-        <v>40663735</v>
-      </c>
-      <c r="T91">
-        <v>82.320999999999998</v>
-      </c>
-      <c r="U91" s="5">
-        <v>41115322</v>
-      </c>
-      <c r="V91">
-        <v>82.768000000000001</v>
-      </c>
-      <c r="W91" s="5">
-        <v>40332437</v>
-      </c>
-      <c r="X91">
-        <v>81.186999999999998</v>
-      </c>
-      <c r="Y91" s="5">
-        <v>40539702</v>
-      </c>
-      <c r="Z91">
-        <v>81.292000000000002</v>
-      </c>
-      <c r="AA91" s="5">
-        <v>40056239</v>
-      </c>
-      <c r="AB91">
-        <v>79.070999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="1">
-        <f t="shared" si="8"/>
-        <v>2858</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="9"/>
-        <v>2837</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="10"/>
-        <v>0.32823907276387043</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="11"/>
-        <v>1801.8229999999999</v>
-      </c>
-      <c r="F92" s="1">
-        <f>IF(B92='Global Best'!$B89,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <f>('Global Best'!$B89-B92)/'Global Best'!$B89</f>
-        <v>9.0152565880721215E-3</v>
-      </c>
-      <c r="I92">
-        <v>2836</v>
-      </c>
-      <c r="J92">
-        <v>1801.6969999999999</v>
-      </c>
-      <c r="K92">
-        <v>2838</v>
-      </c>
-      <c r="L92">
-        <v>1802.3409999999999</v>
-      </c>
-      <c r="M92">
-        <v>2844</v>
-      </c>
-      <c r="N92">
-        <v>1802.1769999999999</v>
-      </c>
-      <c r="O92">
-        <v>2836</v>
-      </c>
-      <c r="P92">
-        <v>1801.962</v>
-      </c>
-      <c r="Q92">
-        <v>2844</v>
-      </c>
-      <c r="R92">
-        <v>1801.954</v>
-      </c>
-      <c r="S92">
-        <v>2858</v>
-      </c>
-      <c r="T92">
-        <v>1801.953</v>
-      </c>
-      <c r="U92">
-        <v>2842</v>
-      </c>
-      <c r="V92">
-        <v>1801.605</v>
-      </c>
-      <c r="W92">
-        <v>2814</v>
-      </c>
-      <c r="X92">
-        <v>1801.36</v>
-      </c>
-      <c r="Y92">
-        <v>2830</v>
-      </c>
-      <c r="Z92">
-        <v>1801.329</v>
-      </c>
-      <c r="AA92">
-        <v>2828</v>
-      </c>
-      <c r="AB92">
-        <v>1801.8520000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="1">
-        <f t="shared" si="8"/>
-        <v>452</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="9"/>
-        <v>447.4</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="10"/>
-        <v>1.8366676467027037</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="11"/>
-        <v>57.531600000000005</v>
-      </c>
-      <c r="F93" s="1">
-        <f>IF(B93='Global Best'!$B90,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <f>('Global Best'!$B90-B93)/'Global Best'!$B90</f>
-        <v>4.4052863436123352E-3</v>
-      </c>
-      <c r="I93">
-        <v>450</v>
-      </c>
-      <c r="J93">
-        <v>57.368000000000002</v>
-      </c>
-      <c r="K93">
-        <v>452</v>
-      </c>
-      <c r="L93">
-        <v>58.389000000000003</v>
-      </c>
-      <c r="M93">
-        <v>446</v>
-      </c>
-      <c r="N93">
-        <v>60.545000000000002</v>
-      </c>
-      <c r="O93">
-        <v>450</v>
-      </c>
-      <c r="P93">
-        <v>59.286000000000001</v>
-      </c>
-      <c r="Q93">
-        <v>450</v>
-      </c>
-      <c r="R93">
-        <v>57.334000000000003</v>
-      </c>
-      <c r="S93">
-        <v>444</v>
-      </c>
-      <c r="T93">
-        <v>57.78</v>
-      </c>
-      <c r="U93">
-        <v>448</v>
-      </c>
-      <c r="V93">
-        <v>58.52</v>
-      </c>
-      <c r="W93">
-        <v>446</v>
-      </c>
-      <c r="X93">
-        <v>56.396000000000001</v>
-      </c>
-      <c r="Y93">
-        <v>444</v>
-      </c>
-      <c r="Z93">
-        <v>54.265999999999998</v>
-      </c>
-      <c r="AA93">
-        <v>444</v>
-      </c>
-      <c r="AB93">
-        <v>55.432000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99">
-        <v>11618</v>
-      </c>
-      <c r="D99">
-        <v>1297.4690000000001</v>
-      </c>
-      <c r="E99">
-        <v>11591</v>
-      </c>
-      <c r="F99">
-        <v>1352.8520000000001</v>
-      </c>
-      <c r="G99">
-        <v>11613</v>
-      </c>
-      <c r="H99">
-        <v>1367.3579999999999</v>
-      </c>
-      <c r="I99">
-        <v>11582</v>
-      </c>
-      <c r="J99">
-        <v>1363.6389999999999</v>
-      </c>
-      <c r="K99">
-        <v>11582</v>
-      </c>
-      <c r="L99">
-        <v>1351.384</v>
-      </c>
-      <c r="M99">
-        <v>11608</v>
-      </c>
-      <c r="N99">
-        <v>1290.856</v>
-      </c>
-      <c r="O99">
-        <v>11613</v>
-      </c>
-      <c r="P99">
-        <v>1283.6690000000001</v>
-      </c>
-      <c r="Q99">
-        <v>11618</v>
-      </c>
-      <c r="R99">
-        <v>1389.527</v>
-      </c>
-      <c r="S99">
-        <v>11585</v>
-      </c>
-      <c r="T99">
-        <v>1272.7280000000001</v>
-      </c>
-      <c r="U99">
-        <v>11603</v>
-      </c>
-      <c r="V99">
-        <v>1333.001</v>
-      </c>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100">
-        <v>1953</v>
-      </c>
-      <c r="D100">
-        <v>1265.8050000000001</v>
-      </c>
-      <c r="E100">
-        <v>1959</v>
-      </c>
-      <c r="F100">
-        <v>1307.1369999999999</v>
-      </c>
-      <c r="G100">
-        <v>1948</v>
-      </c>
-      <c r="H100">
-        <v>1337.471</v>
-      </c>
-      <c r="I100">
-        <v>1975</v>
-      </c>
-      <c r="J100">
-        <v>1232.681</v>
-      </c>
-      <c r="K100">
-        <v>1987</v>
-      </c>
-      <c r="L100">
-        <v>1217.2639999999999</v>
-      </c>
-      <c r="M100">
-        <v>1977</v>
-      </c>
-      <c r="N100">
-        <v>1226.45</v>
-      </c>
-      <c r="O100">
-        <v>1988</v>
-      </c>
-      <c r="P100">
-        <v>1206.673</v>
-      </c>
-      <c r="Q100">
-        <v>1961</v>
-      </c>
-      <c r="R100">
-        <v>1257.713</v>
-      </c>
-      <c r="S100">
-        <v>1973</v>
-      </c>
-      <c r="T100">
-        <v>1209.7860000000001</v>
-      </c>
-      <c r="U100">
-        <v>1954</v>
-      </c>
-      <c r="V100">
-        <v>1161.799</v>
-      </c>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101">
-        <v>552</v>
-      </c>
-      <c r="D101">
-        <v>186.70099999999999</v>
-      </c>
-      <c r="E101">
-        <v>556</v>
-      </c>
-      <c r="F101">
-        <v>206.91200000000001</v>
-      </c>
-      <c r="G101">
-        <v>548</v>
-      </c>
-      <c r="H101">
-        <v>178.059</v>
-      </c>
-      <c r="I101">
-        <v>544</v>
-      </c>
-      <c r="J101">
-        <v>186.512</v>
-      </c>
-      <c r="K101">
-        <v>552</v>
-      </c>
-      <c r="L101">
-        <v>201.78700000000001</v>
-      </c>
-      <c r="M101">
-        <v>548</v>
-      </c>
-      <c r="N101">
-        <v>173.501</v>
-      </c>
-      <c r="O101">
-        <v>550</v>
-      </c>
-      <c r="P101">
-        <v>198.92099999999999</v>
-      </c>
-      <c r="Q101">
-        <v>552</v>
-      </c>
-      <c r="R101">
-        <v>175.75399999999999</v>
-      </c>
-      <c r="S101">
-        <v>548</v>
-      </c>
-      <c r="T101">
-        <v>181.667</v>
-      </c>
-      <c r="U101">
-        <v>552</v>
-      </c>
-      <c r="V101">
-        <v>179.322</v>
-      </c>
-    </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102">
-        <v>540</v>
-      </c>
-      <c r="D102">
-        <v>176.67699999999999</v>
-      </c>
-      <c r="E102">
-        <v>542</v>
-      </c>
-      <c r="F102">
-        <v>181.327</v>
-      </c>
-      <c r="G102">
-        <v>532</v>
-      </c>
-      <c r="H102">
-        <v>184.06299999999999</v>
-      </c>
-      <c r="I102">
-        <v>536</v>
-      </c>
-      <c r="J102">
-        <v>174.26400000000001</v>
-      </c>
-      <c r="K102">
-        <v>536</v>
-      </c>
-      <c r="L102">
-        <v>175.73</v>
-      </c>
-      <c r="M102">
-        <v>538</v>
-      </c>
-      <c r="N102">
-        <v>176.30799999999999</v>
-      </c>
-      <c r="O102">
-        <v>538</v>
-      </c>
-      <c r="P102">
-        <v>190.77799999999999</v>
-      </c>
-      <c r="Q102">
-        <v>544</v>
-      </c>
-      <c r="R102">
-        <v>179.04300000000001</v>
-      </c>
-      <c r="S102">
-        <v>542</v>
-      </c>
-      <c r="T102">
-        <v>192.398</v>
-      </c>
-      <c r="U102">
-        <v>534</v>
-      </c>
-      <c r="V102">
-        <v>168.29499999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103">
-        <v>566</v>
-      </c>
-      <c r="D103">
-        <v>195.71199999999999</v>
-      </c>
-      <c r="E103">
-        <v>566</v>
-      </c>
-      <c r="F103">
-        <v>191.30500000000001</v>
-      </c>
-      <c r="G103">
-        <v>564</v>
-      </c>
-      <c r="H103">
-        <v>187.45400000000001</v>
-      </c>
-      <c r="I103">
-        <v>564</v>
-      </c>
-      <c r="J103">
-        <v>181.154</v>
-      </c>
-      <c r="K103">
-        <v>564</v>
-      </c>
-      <c r="L103">
-        <v>201.99799999999999</v>
-      </c>
-      <c r="M103">
-        <v>564</v>
-      </c>
-      <c r="N103">
-        <v>190.75299999999999</v>
-      </c>
-      <c r="O103">
-        <v>564</v>
-      </c>
-      <c r="P103">
-        <v>188.44499999999999</v>
-      </c>
-      <c r="Q103">
-        <v>560</v>
-      </c>
-      <c r="R103">
-        <v>187.82900000000001</v>
-      </c>
-      <c r="S103">
-        <v>566</v>
-      </c>
-      <c r="T103">
-        <v>182.03399999999999</v>
-      </c>
-      <c r="U103">
-        <v>562</v>
-      </c>
-      <c r="V103">
-        <v>181.37100000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104">
-        <v>3033</v>
-      </c>
-      <c r="D104">
-        <v>450.6</v>
-      </c>
-      <c r="E104">
-        <v>3032</v>
-      </c>
-      <c r="F104">
-        <v>464.339</v>
-      </c>
-      <c r="G104">
-        <v>3033</v>
-      </c>
-      <c r="H104">
-        <v>461.26799999999997</v>
-      </c>
-      <c r="I104">
-        <v>3028</v>
-      </c>
-      <c r="J104">
-        <v>465.01</v>
-      </c>
-      <c r="K104">
-        <v>3028</v>
-      </c>
-      <c r="L104">
-        <v>461.91199999999998</v>
-      </c>
-      <c r="M104">
-        <v>3037</v>
-      </c>
-      <c r="N104">
-        <v>466.49400000000003</v>
-      </c>
-      <c r="O104">
-        <v>3037</v>
-      </c>
-      <c r="P104">
-        <v>468.04199999999997</v>
-      </c>
-      <c r="Q104">
-        <v>3025</v>
-      </c>
-      <c r="R104">
-        <v>458.08600000000001</v>
-      </c>
-      <c r="S104">
-        <v>3031</v>
-      </c>
-      <c r="T104">
-        <v>453.87</v>
-      </c>
-      <c r="U104">
-        <v>3035</v>
-      </c>
-      <c r="V104">
-        <v>464.17</v>
-      </c>
-    </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>39</v>
-      </c>
-      <c r="C105">
-        <v>3023</v>
-      </c>
-      <c r="D105">
-        <v>470.59399999999999</v>
-      </c>
-      <c r="E105">
-        <v>3027</v>
-      </c>
-      <c r="F105">
-        <v>475.19299999999998</v>
-      </c>
-      <c r="G105">
-        <v>3025</v>
-      </c>
-      <c r="H105">
-        <v>493.839</v>
-      </c>
-      <c r="I105">
-        <v>3015</v>
-      </c>
-      <c r="J105">
-        <v>454.512</v>
-      </c>
-      <c r="K105">
-        <v>3011</v>
-      </c>
-      <c r="L105">
-        <v>464.61399999999998</v>
-      </c>
-      <c r="M105">
-        <v>3027</v>
-      </c>
-      <c r="N105">
-        <v>496.26799999999997</v>
-      </c>
-      <c r="O105">
-        <v>3025</v>
-      </c>
-      <c r="P105">
-        <v>448.31200000000001</v>
-      </c>
-      <c r="Q105">
-        <v>3014</v>
-      </c>
-      <c r="R105">
-        <v>450.60500000000002</v>
-      </c>
-      <c r="S105">
-        <v>3016</v>
-      </c>
-      <c r="T105">
-        <v>477.34500000000003</v>
-      </c>
-      <c r="U105">
-        <v>3025</v>
-      </c>
-      <c r="V105">
-        <v>449.98099999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106">
-        <v>3019</v>
-      </c>
-      <c r="D106">
-        <v>446.75700000000001</v>
-      </c>
-      <c r="E106">
-        <v>3021</v>
-      </c>
-      <c r="F106">
-        <v>443.96100000000001</v>
-      </c>
-      <c r="G106">
-        <v>3020</v>
-      </c>
-      <c r="H106">
-        <v>416.57100000000003</v>
-      </c>
-      <c r="I106">
-        <v>3026</v>
-      </c>
-      <c r="J106">
-        <v>423.38499999999999</v>
-      </c>
-      <c r="K106">
-        <v>3023</v>
-      </c>
-      <c r="L106">
-        <v>441.33499999999998</v>
-      </c>
-      <c r="M106">
-        <v>3019</v>
-      </c>
-      <c r="N106">
-        <v>447.76400000000001</v>
-      </c>
-      <c r="O106">
-        <v>3027</v>
-      </c>
-      <c r="P106">
-        <v>484.90899999999999</v>
-      </c>
-      <c r="Q106">
-        <v>3018</v>
-      </c>
-      <c r="R106">
-        <v>458.39</v>
-      </c>
-      <c r="S106">
-        <v>3019</v>
-      </c>
-      <c r="T106">
-        <v>444.02199999999999</v>
-      </c>
-      <c r="U106">
-        <v>3030</v>
-      </c>
-      <c r="V106">
-        <v>448.97</v>
-      </c>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107">
-        <v>3012</v>
-      </c>
-      <c r="D107">
-        <v>472.858</v>
-      </c>
-      <c r="E107">
-        <v>3015</v>
-      </c>
-      <c r="F107">
-        <v>454.97500000000002</v>
-      </c>
-      <c r="G107">
-        <v>3017</v>
-      </c>
-      <c r="H107">
-        <v>468.13400000000001</v>
-      </c>
-      <c r="I107">
-        <v>3022</v>
-      </c>
-      <c r="J107">
-        <v>481.45</v>
-      </c>
-      <c r="K107">
-        <v>3006</v>
-      </c>
-      <c r="L107">
-        <v>464.63600000000002</v>
-      </c>
-      <c r="M107">
-        <v>3020</v>
-      </c>
-      <c r="N107">
-        <v>465.30900000000003</v>
-      </c>
-      <c r="O107">
-        <v>3023</v>
-      </c>
-      <c r="P107">
-        <v>451.30900000000003</v>
-      </c>
-      <c r="Q107">
-        <v>3026</v>
-      </c>
-      <c r="R107">
-        <v>480.03300000000002</v>
-      </c>
-      <c r="S107">
-        <v>3019</v>
-      </c>
-      <c r="T107">
-        <v>475.45100000000002</v>
-      </c>
-      <c r="U107">
-        <v>3019</v>
-      </c>
-      <c r="V107">
-        <v>454.69099999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108">
-        <v>980</v>
-      </c>
-      <c r="D108">
-        <v>475.149</v>
-      </c>
-      <c r="E108">
-        <v>970</v>
-      </c>
-      <c r="F108">
-        <v>463.25099999999998</v>
-      </c>
-      <c r="G108">
-        <v>974</v>
-      </c>
-      <c r="H108">
-        <v>492.23700000000002</v>
-      </c>
-      <c r="I108">
-        <v>981</v>
-      </c>
-      <c r="J108">
-        <v>439.3</v>
-      </c>
-      <c r="K108">
-        <v>977</v>
-      </c>
-      <c r="L108">
-        <v>442.68599999999998</v>
-      </c>
-      <c r="M108">
-        <v>962</v>
-      </c>
-      <c r="N108">
-        <v>532.99199999999996</v>
-      </c>
-      <c r="O108">
-        <v>968</v>
-      </c>
-      <c r="P108">
-        <v>472.68299999999999</v>
-      </c>
-      <c r="Q108">
-        <v>978</v>
-      </c>
-      <c r="R108">
-        <v>419.96600000000001</v>
-      </c>
-      <c r="S108">
-        <v>963</v>
-      </c>
-      <c r="T108">
-        <v>423.53</v>
-      </c>
-      <c r="U108">
-        <v>963</v>
-      </c>
-      <c r="V108">
-        <v>474.13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
-        <v>43</v>
-      </c>
-      <c r="C109">
-        <v>880</v>
-      </c>
-      <c r="D109">
-        <v>408.12200000000001</v>
-      </c>
-      <c r="E109">
-        <v>880</v>
-      </c>
-      <c r="F109">
-        <v>379.846</v>
-      </c>
-      <c r="G109">
-        <v>878</v>
-      </c>
-      <c r="H109">
-        <v>406.125</v>
-      </c>
-      <c r="I109">
-        <v>880</v>
-      </c>
-      <c r="J109">
-        <v>418.86799999999999</v>
-      </c>
-      <c r="K109">
-        <v>883</v>
-      </c>
-      <c r="L109">
-        <v>404.98099999999999</v>
-      </c>
-      <c r="M109">
-        <v>870</v>
-      </c>
-      <c r="N109">
-        <v>470.613</v>
-      </c>
-      <c r="O109">
-        <v>885</v>
-      </c>
-      <c r="P109">
-        <v>440.81799999999998</v>
-      </c>
-      <c r="Q109">
-        <v>888</v>
-      </c>
-      <c r="R109">
-        <v>419.78300000000002</v>
-      </c>
-      <c r="S109">
-        <v>891</v>
-      </c>
-      <c r="T109">
-        <v>412.31</v>
-      </c>
-      <c r="U109">
-        <v>886</v>
-      </c>
-      <c r="V109">
-        <v>433.09399999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110">
-        <v>11584</v>
-      </c>
-      <c r="D110">
-        <v>1323.4739999999999</v>
-      </c>
-      <c r="E110">
-        <v>11573</v>
-      </c>
-      <c r="F110">
-        <v>1340.421</v>
-      </c>
-      <c r="G110">
-        <v>11583</v>
-      </c>
-      <c r="H110">
-        <v>1360.329</v>
-      </c>
-      <c r="I110">
-        <v>11570</v>
-      </c>
-      <c r="J110">
-        <v>1280.4870000000001</v>
-      </c>
-      <c r="K110">
-        <v>11591</v>
-      </c>
-      <c r="L110">
-        <v>1362.614</v>
-      </c>
-      <c r="M110">
-        <v>11555</v>
-      </c>
-      <c r="N110">
-        <v>1443.579</v>
-      </c>
-      <c r="O110">
-        <v>11590</v>
-      </c>
-      <c r="P110">
-        <v>1292.07</v>
-      </c>
-      <c r="Q110">
-        <v>11592</v>
-      </c>
-      <c r="R110">
-        <v>1278.4179999999999</v>
-      </c>
-      <c r="S110">
-        <v>11567</v>
-      </c>
-      <c r="T110">
-        <v>1320.771</v>
-      </c>
-      <c r="U110">
-        <v>11596</v>
-      </c>
-      <c r="V110">
-        <v>1259.5530000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111">
-        <v>931</v>
-      </c>
-      <c r="D111">
-        <v>410.86799999999999</v>
-      </c>
-      <c r="E111">
-        <v>928</v>
-      </c>
-      <c r="F111">
-        <v>421.30700000000002</v>
-      </c>
-      <c r="G111">
-        <v>916</v>
-      </c>
-      <c r="H111">
-        <v>410.74599999999998</v>
-      </c>
-      <c r="I111">
-        <v>931</v>
-      </c>
-      <c r="J111">
-        <v>404.93200000000002</v>
-      </c>
-      <c r="K111">
-        <v>927</v>
-      </c>
-      <c r="L111">
-        <v>411.714</v>
-      </c>
-      <c r="M111">
-        <v>924</v>
-      </c>
-      <c r="N111">
-        <v>428.27800000000002</v>
-      </c>
-      <c r="O111">
-        <v>929</v>
-      </c>
-      <c r="P111">
-        <v>398.25700000000001</v>
-      </c>
-      <c r="Q111">
-        <v>932</v>
-      </c>
-      <c r="R111">
-        <v>390.04700000000003</v>
-      </c>
-      <c r="S111">
-        <v>923</v>
-      </c>
-      <c r="T111">
-        <v>418.49599999999998</v>
-      </c>
-      <c r="U111">
-        <v>932</v>
-      </c>
-      <c r="V111">
-        <v>405.97</v>
-      </c>
-    </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B112" t="s">
-        <v>46</v>
-      </c>
-      <c r="C112">
-        <v>900</v>
-      </c>
-      <c r="D112">
-        <v>419.96699999999998</v>
-      </c>
-      <c r="E112">
-        <v>913</v>
-      </c>
-      <c r="F112">
-        <v>431.37599999999998</v>
-      </c>
-      <c r="G112">
-        <v>906</v>
-      </c>
-      <c r="H112">
-        <v>463.40499999999997</v>
-      </c>
-      <c r="I112">
-        <v>922</v>
-      </c>
-      <c r="J112">
-        <v>457.94400000000002</v>
-      </c>
-      <c r="K112">
-        <v>906</v>
-      </c>
-      <c r="L112">
-        <v>407.38799999999998</v>
-      </c>
-      <c r="M112">
-        <v>904</v>
-      </c>
-      <c r="N112">
-        <v>460.66699999999997</v>
-      </c>
-      <c r="O112">
-        <v>898</v>
-      </c>
-      <c r="P112">
-        <v>408.221</v>
-      </c>
-      <c r="Q112">
-        <v>897</v>
-      </c>
-      <c r="R112">
-        <v>430.83100000000002</v>
-      </c>
-      <c r="S112">
-        <v>899</v>
-      </c>
-      <c r="T112">
-        <v>428.59500000000003</v>
-      </c>
-      <c r="U112">
-        <v>901</v>
-      </c>
-      <c r="V112">
-        <v>432.42899999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B113" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113">
-        <v>13228</v>
-      </c>
-      <c r="D113">
-        <v>1803.662</v>
-      </c>
-      <c r="E113">
-        <v>13211</v>
-      </c>
-      <c r="F113">
-        <v>1804.037</v>
-      </c>
-      <c r="G113">
-        <v>13206</v>
-      </c>
-      <c r="H113">
-        <v>1802.0219999999999</v>
-      </c>
-      <c r="I113">
-        <v>13238</v>
-      </c>
-      <c r="J113">
-        <v>1801.848</v>
-      </c>
-      <c r="K113">
-        <v>13196</v>
-      </c>
-      <c r="L113">
-        <v>1803.816</v>
-      </c>
-      <c r="M113">
-        <v>13173</v>
-      </c>
-      <c r="N113">
-        <v>1803.752</v>
-      </c>
-      <c r="O113">
-        <v>13163</v>
-      </c>
-      <c r="P113">
-        <v>1803.973</v>
-      </c>
-      <c r="Q113">
-        <v>13188</v>
-      </c>
-      <c r="R113">
-        <v>1802.3019999999999</v>
-      </c>
-      <c r="S113">
-        <v>13202</v>
-      </c>
-      <c r="T113">
-        <v>1803.1510000000001</v>
-      </c>
-      <c r="U113">
-        <v>13203</v>
-      </c>
-      <c r="V113">
-        <v>1802.9159999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C114">
-        <v>13200</v>
-      </c>
-      <c r="D114">
-        <v>1804.8689999999999</v>
-      </c>
-      <c r="E114">
-        <v>13202</v>
-      </c>
-      <c r="F114">
-        <v>1803.2159999999999</v>
-      </c>
-      <c r="G114">
-        <v>13171</v>
-      </c>
-      <c r="H114">
-        <v>1805.6769999999999</v>
-      </c>
-      <c r="I114">
-        <v>13225</v>
-      </c>
-      <c r="J114">
-        <v>1804.048</v>
-      </c>
-      <c r="K114">
-        <v>13220</v>
-      </c>
-      <c r="L114">
-        <v>1803.0329999999999</v>
-      </c>
-      <c r="M114">
-        <v>13187</v>
-      </c>
-      <c r="N114">
-        <v>1803.7280000000001</v>
-      </c>
-      <c r="O114">
-        <v>13233</v>
-      </c>
-      <c r="P114">
-        <v>1803.162</v>
-      </c>
-      <c r="Q114">
-        <v>13243</v>
-      </c>
-      <c r="R114">
-        <v>1803.086</v>
-      </c>
-      <c r="S114">
-        <v>13180</v>
-      </c>
-      <c r="T114">
-        <v>1803.4480000000001</v>
-      </c>
-      <c r="U114">
-        <v>13206</v>
-      </c>
-      <c r="V114">
-        <v>1803.729</v>
-      </c>
-    </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115">
-        <v>13202</v>
-      </c>
-      <c r="D115">
-        <v>1803.43</v>
-      </c>
-      <c r="E115">
-        <v>13161</v>
-      </c>
-      <c r="F115">
-        <v>1804.0889999999999</v>
-      </c>
-      <c r="G115">
-        <v>13171</v>
-      </c>
-      <c r="H115">
-        <v>1802.91</v>
-      </c>
-      <c r="I115">
-        <v>13182</v>
-      </c>
-      <c r="J115">
-        <v>1804.31</v>
-      </c>
-      <c r="K115">
-        <v>13188</v>
-      </c>
-      <c r="L115">
-        <v>1803.9839999999999</v>
-      </c>
-      <c r="M115">
-        <v>13176</v>
-      </c>
-      <c r="N115">
-        <v>1805.1949999999999</v>
-      </c>
-      <c r="O115">
-        <v>13188</v>
-      </c>
-      <c r="P115">
-        <v>1802.6179999999999</v>
-      </c>
-      <c r="Q115">
-        <v>13222</v>
-      </c>
-      <c r="R115">
-        <v>1802.7270000000001</v>
-      </c>
-      <c r="S115">
-        <v>13187</v>
-      </c>
-      <c r="T115">
-        <v>1803.5540000000001</v>
-      </c>
-      <c r="U115">
-        <v>13175</v>
-      </c>
-      <c r="V115">
-        <v>1803.6579999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B116" t="s">
-        <v>50</v>
-      </c>
-      <c r="C116">
-        <v>13190</v>
-      </c>
-      <c r="D116">
-        <v>1804.2729999999999</v>
-      </c>
-      <c r="E116">
-        <v>13170</v>
-      </c>
-      <c r="F116">
-        <v>1802.866</v>
-      </c>
-      <c r="G116">
-        <v>13196</v>
-      </c>
-      <c r="H116">
-        <v>1804.3779999999999</v>
-      </c>
-      <c r="I116">
-        <v>13162</v>
-      </c>
-      <c r="J116">
-        <v>1802.931</v>
-      </c>
-      <c r="K116">
-        <v>13192</v>
-      </c>
-      <c r="L116">
-        <v>1805.7349999999999</v>
-      </c>
-      <c r="M116">
-        <v>13182</v>
-      </c>
-      <c r="N116">
-        <v>1805.4169999999999</v>
-      </c>
-      <c r="O116">
-        <v>13139</v>
-      </c>
-      <c r="P116">
-        <v>1803.884</v>
-      </c>
-      <c r="Q116">
-        <v>13216</v>
-      </c>
-      <c r="R116">
-        <v>1803.8</v>
-      </c>
-      <c r="S116">
-        <v>13196</v>
-      </c>
-      <c r="T116">
-        <v>1804.5309999999999</v>
-      </c>
-      <c r="U116">
-        <v>13210</v>
-      </c>
-      <c r="V116">
-        <v>1803.288</v>
-      </c>
-    </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C117">
-        <v>13164</v>
-      </c>
-      <c r="D117">
-        <v>1804.4760000000001</v>
-      </c>
-      <c r="E117">
-        <v>13191</v>
-      </c>
-      <c r="F117">
-        <v>1803.1079999999999</v>
-      </c>
-      <c r="G117">
-        <v>13197</v>
-      </c>
-      <c r="H117">
-        <v>1804.0730000000001</v>
-      </c>
-      <c r="I117">
-        <v>13173</v>
-      </c>
-      <c r="J117">
-        <v>1803.1220000000001</v>
-      </c>
-      <c r="K117">
-        <v>13162</v>
-      </c>
-      <c r="L117">
-        <v>1803.115</v>
-      </c>
-      <c r="M117">
-        <v>13181</v>
-      </c>
-      <c r="N117">
-        <v>1804.0309999999999</v>
-      </c>
-      <c r="O117">
-        <v>13161</v>
-      </c>
-      <c r="P117">
-        <v>1802.9069999999999</v>
-      </c>
-      <c r="Q117">
-        <v>13142</v>
-      </c>
-      <c r="R117">
-        <v>1803.4349999999999</v>
-      </c>
-      <c r="S117">
-        <v>13161</v>
-      </c>
-      <c r="T117">
-        <v>1804.9970000000001</v>
-      </c>
-      <c r="U117">
-        <v>13200</v>
-      </c>
-      <c r="V117">
-        <v>1803.617</v>
-      </c>
-    </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
-        <v>52</v>
-      </c>
-      <c r="C118">
-        <v>3156</v>
-      </c>
-      <c r="D118">
-        <v>1804.0239999999999</v>
-      </c>
-      <c r="E118">
-        <v>3210</v>
-      </c>
-      <c r="F118">
-        <v>1802.337</v>
-      </c>
-      <c r="G118">
-        <v>3245</v>
-      </c>
-      <c r="H118">
-        <v>1801.635</v>
-      </c>
-      <c r="I118">
-        <v>3143</v>
-      </c>
-      <c r="J118">
-        <v>1802.902</v>
-      </c>
-      <c r="K118">
-        <v>3180</v>
-      </c>
-      <c r="L118">
-        <v>1802.0840000000001</v>
-      </c>
-      <c r="M118">
-        <v>3186</v>
-      </c>
-      <c r="N118">
-        <v>1803.192</v>
-      </c>
-      <c r="O118">
-        <v>3186</v>
-      </c>
-      <c r="P118">
-        <v>1802.85</v>
-      </c>
-      <c r="Q118">
-        <v>3172</v>
-      </c>
-      <c r="R118">
-        <v>1803.7719999999999</v>
-      </c>
-      <c r="S118">
-        <v>3187</v>
-      </c>
-      <c r="T118">
-        <v>1805.7550000000001</v>
-      </c>
-      <c r="U118">
-        <v>3184</v>
-      </c>
-      <c r="V118">
-        <v>1802.1569999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B119" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119">
-        <v>3167</v>
-      </c>
-      <c r="D119">
-        <v>1803.318</v>
-      </c>
-      <c r="E119">
-        <v>3145</v>
-      </c>
-      <c r="F119">
-        <v>1802.828</v>
-      </c>
-      <c r="G119">
-        <v>3114</v>
-      </c>
-      <c r="H119">
-        <v>1802.4349999999999</v>
-      </c>
-      <c r="I119">
-        <v>3130</v>
-      </c>
-      <c r="J119">
-        <v>1803.6469999999999</v>
-      </c>
-      <c r="K119">
-        <v>3119</v>
-      </c>
-      <c r="L119">
-        <v>1802.1479999999999</v>
-      </c>
-      <c r="M119">
-        <v>3175</v>
-      </c>
-      <c r="N119">
-        <v>1801.731</v>
-      </c>
-      <c r="O119">
-        <v>3156</v>
-      </c>
-      <c r="P119">
-        <v>1803.739</v>
-      </c>
-      <c r="Q119">
-        <v>3137</v>
-      </c>
-      <c r="R119">
-        <v>1801.877</v>
-      </c>
-      <c r="S119">
-        <v>3110</v>
-      </c>
-      <c r="T119">
-        <v>1802.1320000000001</v>
-      </c>
-      <c r="U119">
-        <v>3123</v>
-      </c>
-      <c r="V119">
-        <v>1802.0350000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
-        <v>54</v>
-      </c>
-      <c r="C120">
-        <v>3265</v>
-      </c>
-      <c r="D120">
-        <v>1801.7750000000001</v>
-      </c>
-      <c r="E120">
-        <v>3226</v>
-      </c>
-      <c r="F120">
-        <v>1802.68</v>
-      </c>
-      <c r="G120">
-        <v>3252</v>
-      </c>
-      <c r="H120">
-        <v>1803.1880000000001</v>
-      </c>
-      <c r="I120">
-        <v>3231</v>
-      </c>
-      <c r="J120">
-        <v>1801.962</v>
-      </c>
-      <c r="K120">
-        <v>3271</v>
-      </c>
-      <c r="L120">
-        <v>1803.636</v>
-      </c>
-      <c r="M120">
-        <v>3250</v>
-      </c>
-      <c r="N120">
-        <v>1801.614</v>
-      </c>
-      <c r="O120">
-        <v>3230</v>
-      </c>
-      <c r="P120">
-        <v>1801.8330000000001</v>
-      </c>
-      <c r="Q120">
-        <v>3259</v>
-      </c>
-      <c r="R120">
-        <v>1802.463</v>
-      </c>
-      <c r="S120">
-        <v>3259</v>
-      </c>
-      <c r="T120">
-        <v>1801.4760000000001</v>
-      </c>
-      <c r="U120">
-        <v>3254</v>
-      </c>
-      <c r="V120">
-        <v>1802.904</v>
-      </c>
-    </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121">
-        <v>11583</v>
-      </c>
-      <c r="D121">
-        <v>1417.8630000000001</v>
-      </c>
-      <c r="E121">
-        <v>11601</v>
-      </c>
-      <c r="F121">
-        <v>1335.5709999999999</v>
-      </c>
-      <c r="G121">
-        <v>11584</v>
-      </c>
-      <c r="H121">
-        <v>1359.2049999999999</v>
-      </c>
-      <c r="I121">
-        <v>11595</v>
-      </c>
-      <c r="J121">
-        <v>1312.3889999999999</v>
-      </c>
-      <c r="K121">
-        <v>11582</v>
-      </c>
-      <c r="L121">
-        <v>1314.48</v>
-      </c>
-      <c r="M121">
-        <v>11593</v>
-      </c>
-      <c r="N121">
-        <v>1295.5540000000001</v>
-      </c>
-      <c r="O121">
-        <v>11597</v>
-      </c>
-      <c r="P121">
-        <v>1357.8209999999999</v>
-      </c>
-      <c r="Q121">
-        <v>11591</v>
-      </c>
-      <c r="R121">
-        <v>1327.771</v>
-      </c>
-      <c r="S121">
-        <v>11602</v>
-      </c>
-      <c r="T121">
-        <v>1383.6289999999999</v>
-      </c>
-      <c r="U121">
-        <v>11605</v>
-      </c>
-      <c r="V121">
-        <v>1323.8109999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122">
-        <v>3271</v>
-      </c>
-      <c r="D122">
-        <v>1802.6220000000001</v>
-      </c>
-      <c r="E122">
-        <v>3202</v>
-      </c>
-      <c r="F122">
-        <v>1804.3620000000001</v>
-      </c>
-      <c r="G122">
-        <v>3256</v>
-      </c>
-      <c r="H122">
-        <v>1802.37</v>
-      </c>
-      <c r="I122">
-        <v>3239</v>
-      </c>
-      <c r="J122">
-        <v>1802.7739999999999</v>
-      </c>
-      <c r="K122">
-        <v>3234</v>
-      </c>
-      <c r="L122">
-        <v>1803.307</v>
-      </c>
-      <c r="M122">
-        <v>3237</v>
-      </c>
-      <c r="N122">
-        <v>1803.0039999999999</v>
-      </c>
-      <c r="O122">
-        <v>3279</v>
-      </c>
-      <c r="P122">
-        <v>1802.027</v>
-      </c>
-      <c r="Q122">
-        <v>3248</v>
-      </c>
-      <c r="R122">
-        <v>1804.288</v>
-      </c>
-      <c r="S122">
-        <v>3253</v>
-      </c>
-      <c r="T122">
-        <v>1803.03</v>
-      </c>
-      <c r="U122">
-        <v>3258</v>
-      </c>
-      <c r="V122">
-        <v>1802.2950000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B123" t="s">
-        <v>57</v>
-      </c>
-      <c r="C123">
-        <v>3142</v>
-      </c>
-      <c r="D123">
-        <v>1801.6590000000001</v>
-      </c>
-      <c r="E123">
-        <v>3167</v>
-      </c>
-      <c r="F123">
-        <v>1803.991</v>
-      </c>
-      <c r="G123">
-        <v>3144</v>
-      </c>
-      <c r="H123">
-        <v>1804.222</v>
-      </c>
-      <c r="I123">
-        <v>3145</v>
-      </c>
-      <c r="J123">
-        <v>1803.547</v>
-      </c>
-      <c r="K123">
-        <v>3149</v>
-      </c>
-      <c r="L123">
-        <v>1804.037</v>
-      </c>
-      <c r="M123">
-        <v>3166</v>
-      </c>
-      <c r="N123">
-        <v>1802.8330000000001</v>
-      </c>
-      <c r="O123">
-        <v>3140</v>
-      </c>
-      <c r="P123">
-        <v>1801.3150000000001</v>
-      </c>
-      <c r="Q123">
-        <v>3170</v>
-      </c>
-      <c r="R123">
-        <v>1802.452</v>
-      </c>
-      <c r="S123">
-        <v>3134</v>
-      </c>
-      <c r="T123">
-        <v>1803.742</v>
-      </c>
-      <c r="U123">
-        <v>3133</v>
-      </c>
-      <c r="V123">
-        <v>1802.575</v>
-      </c>
-    </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B124" t="s">
-        <v>58</v>
-      </c>
-      <c r="C124">
-        <v>1356</v>
-      </c>
-      <c r="D124">
-        <v>1800.001</v>
-      </c>
-      <c r="E124">
-        <v>1360</v>
-      </c>
-      <c r="F124">
-        <v>1800.0550000000001</v>
-      </c>
-      <c r="G124">
-        <v>1362</v>
-      </c>
-      <c r="H124">
-        <v>1800.001</v>
-      </c>
-      <c r="I124">
-        <v>1362</v>
-      </c>
-      <c r="J124">
-        <v>1804.509</v>
-      </c>
-      <c r="K124">
-        <v>1356</v>
-      </c>
-      <c r="L124">
-        <v>1800.1030000000001</v>
-      </c>
-      <c r="M124">
-        <v>1358</v>
-      </c>
-      <c r="N124">
-        <v>1800.0429999999999</v>
-      </c>
-      <c r="O124">
-        <v>1370</v>
-      </c>
-      <c r="P124">
-        <v>1800.0820000000001</v>
-      </c>
-      <c r="Q124">
-        <v>1354</v>
-      </c>
-      <c r="R124">
-        <v>1800.087</v>
-      </c>
-      <c r="S124">
-        <v>1356</v>
-      </c>
-      <c r="T124">
-        <v>1800.0609999999999</v>
-      </c>
-      <c r="U124">
-        <v>1368</v>
-      </c>
-      <c r="V124">
-        <v>1800.008</v>
-      </c>
-    </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B125" t="s">
-        <v>59</v>
-      </c>
-      <c r="C125">
-        <v>1316</v>
-      </c>
-      <c r="D125">
-        <v>1800.1079999999999</v>
-      </c>
-      <c r="E125">
-        <v>1336</v>
-      </c>
-      <c r="F125">
-        <v>1800.002</v>
-      </c>
-      <c r="G125">
-        <v>1312</v>
-      </c>
-      <c r="H125">
-        <v>1800.1010000000001</v>
-      </c>
-      <c r="I125">
-        <v>1336</v>
-      </c>
-      <c r="J125">
-        <v>1800.001</v>
-      </c>
-      <c r="K125">
-        <v>1338</v>
-      </c>
-      <c r="L125">
-        <v>1800.32</v>
-      </c>
-      <c r="M125">
-        <v>1336</v>
-      </c>
-      <c r="N125">
-        <v>1800.1030000000001</v>
-      </c>
-      <c r="O125">
-        <v>1342</v>
-      </c>
-      <c r="P125">
-        <v>1800.587</v>
-      </c>
-      <c r="Q125">
-        <v>1328</v>
-      </c>
-      <c r="R125">
-        <v>1800.1110000000001</v>
-      </c>
-      <c r="S125">
-        <v>1324</v>
-      </c>
-      <c r="T125">
-        <v>1800.0340000000001</v>
-      </c>
-      <c r="U125">
-        <v>1330</v>
-      </c>
-      <c r="V125">
-        <v>1800.0719999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B126" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126">
-        <v>1338</v>
-      </c>
-      <c r="D126">
-        <v>1800.076</v>
-      </c>
-      <c r="E126">
-        <v>1338</v>
-      </c>
-      <c r="F126">
-        <v>1800.001</v>
-      </c>
-      <c r="G126">
-        <v>1342</v>
-      </c>
-      <c r="H126">
-        <v>1800.078</v>
-      </c>
-      <c r="I126">
-        <v>1322</v>
-      </c>
-      <c r="J126">
-        <v>1800.0830000000001</v>
-      </c>
-      <c r="K126">
-        <v>1342</v>
-      </c>
-      <c r="L126">
-        <v>1800.001</v>
-      </c>
-      <c r="M126">
-        <v>1348</v>
-      </c>
-      <c r="N126">
-        <v>1802.8230000000001</v>
-      </c>
-      <c r="O126">
-        <v>1348</v>
-      </c>
-      <c r="P126">
-        <v>1800.05</v>
-      </c>
-      <c r="Q126">
-        <v>1340</v>
-      </c>
-      <c r="R126">
-        <v>1800.0830000000001</v>
-      </c>
-      <c r="S126">
-        <v>1346</v>
-      </c>
-      <c r="T126">
-        <v>1800.3630000000001</v>
-      </c>
-      <c r="U126">
-        <v>1350</v>
-      </c>
-      <c r="V126">
-        <v>1804.0139999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B127" t="s">
-        <v>61</v>
-      </c>
-      <c r="C127">
-        <v>7572</v>
-      </c>
-      <c r="D127">
-        <v>1802.0070000000001</v>
-      </c>
-      <c r="E127">
-        <v>7575</v>
-      </c>
-      <c r="F127">
-        <v>1802.325</v>
-      </c>
-      <c r="G127">
-        <v>7573</v>
-      </c>
-      <c r="H127">
-        <v>1801.537</v>
-      </c>
-      <c r="I127">
-        <v>7553</v>
-      </c>
-      <c r="J127">
-        <v>1801.4760000000001</v>
-      </c>
-      <c r="K127">
-        <v>7585</v>
-      </c>
-      <c r="L127">
-        <v>1801.8240000000001</v>
-      </c>
-      <c r="M127">
-        <v>7572</v>
-      </c>
-      <c r="N127">
-        <v>1802.222</v>
-      </c>
-      <c r="O127">
-        <v>7573</v>
-      </c>
-      <c r="P127">
-        <v>1801.51</v>
-      </c>
-      <c r="Q127">
-        <v>7565</v>
-      </c>
-      <c r="R127">
-        <v>1801.0029999999999</v>
-      </c>
-      <c r="S127">
-        <v>7573</v>
-      </c>
-      <c r="T127">
-        <v>1801.8920000000001</v>
-      </c>
-      <c r="U127">
-        <v>7551</v>
-      </c>
-      <c r="V127">
-        <v>1803.471</v>
-      </c>
-    </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B128" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128">
-        <v>7560</v>
-      </c>
-      <c r="D128">
-        <v>1804.7339999999999</v>
-      </c>
-      <c r="E128">
-        <v>7564</v>
-      </c>
-      <c r="F128">
-        <v>1802.0239999999999</v>
-      </c>
-      <c r="G128">
-        <v>7542</v>
-      </c>
-      <c r="H128">
-        <v>1803.0229999999999</v>
-      </c>
-      <c r="I128">
-        <v>7561</v>
-      </c>
-      <c r="J128">
-        <v>1804.049</v>
-      </c>
-      <c r="K128">
-        <v>7580</v>
-      </c>
-      <c r="L128">
-        <v>1801.915</v>
-      </c>
-      <c r="M128">
-        <v>7577</v>
-      </c>
-      <c r="N128">
-        <v>1801.6220000000001</v>
-      </c>
-      <c r="O128">
-        <v>7559</v>
-      </c>
-      <c r="P128">
-        <v>1801.7909999999999</v>
-      </c>
-      <c r="Q128">
-        <v>7563</v>
-      </c>
-      <c r="R128">
-        <v>1801.933</v>
-      </c>
-      <c r="S128">
-        <v>7573</v>
-      </c>
-      <c r="T128">
-        <v>1800.22</v>
-      </c>
-      <c r="U128">
-        <v>7564</v>
-      </c>
-      <c r="V128">
-        <v>1801.8920000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B129" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129">
-        <v>7573</v>
-      </c>
-      <c r="D129">
-        <v>1803.0440000000001</v>
-      </c>
-      <c r="E129">
-        <v>7574</v>
-      </c>
-      <c r="F129">
-        <v>1801.8820000000001</v>
-      </c>
-      <c r="G129">
-        <v>7579</v>
-      </c>
-      <c r="H129">
-        <v>1802.569</v>
-      </c>
-      <c r="I129">
-        <v>7566</v>
-      </c>
-      <c r="J129">
-        <v>1801.9159999999999</v>
-      </c>
-      <c r="K129">
-        <v>7576</v>
-      </c>
-      <c r="L129">
-        <v>1802.0920000000001</v>
-      </c>
-      <c r="M129">
-        <v>7567</v>
-      </c>
-      <c r="N129">
-        <v>1803.518</v>
-      </c>
-      <c r="O129">
-        <v>7580</v>
-      </c>
-      <c r="P129">
-        <v>1801.9590000000001</v>
-      </c>
-      <c r="Q129">
-        <v>7574</v>
-      </c>
-      <c r="R129">
-        <v>1802.6559999999999</v>
-      </c>
-      <c r="S129">
-        <v>7563</v>
-      </c>
-      <c r="T129">
-        <v>1801.383</v>
-      </c>
-      <c r="U129">
-        <v>7583</v>
-      </c>
-      <c r="V129">
-        <v>1801.8889999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B130" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130">
-        <v>7564</v>
-      </c>
-      <c r="D130">
-        <v>1802.13</v>
-      </c>
-      <c r="E130">
-        <v>7578</v>
-      </c>
-      <c r="F130">
-        <v>1801.5909999999999</v>
-      </c>
-      <c r="G130">
-        <v>7579</v>
-      </c>
-      <c r="H130">
-        <v>1801.47</v>
-      </c>
-      <c r="I130">
-        <v>7555</v>
-      </c>
-      <c r="J130">
-        <v>1803.3219999999999</v>
-      </c>
-      <c r="K130">
-        <v>7577</v>
-      </c>
-      <c r="L130">
-        <v>1802.779</v>
-      </c>
-      <c r="M130">
-        <v>7579</v>
-      </c>
-      <c r="N130">
-        <v>1802.4290000000001</v>
-      </c>
-      <c r="O130">
-        <v>7585</v>
-      </c>
-      <c r="P130">
-        <v>1801.5619999999999</v>
-      </c>
-      <c r="Q130">
-        <v>7588</v>
-      </c>
-      <c r="R130">
-        <v>1802.375</v>
-      </c>
-      <c r="S130">
-        <v>7579</v>
-      </c>
-      <c r="T130">
-        <v>1802.662</v>
-      </c>
-      <c r="U130">
-        <v>7574</v>
-      </c>
-      <c r="V130">
-        <v>1802.4159999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131">
-        <v>2305</v>
-      </c>
-      <c r="D131">
-        <v>1801.7180000000001</v>
-      </c>
-      <c r="E131">
-        <v>2290</v>
-      </c>
-      <c r="F131">
-        <v>1800.895</v>
-      </c>
-      <c r="G131">
-        <v>2291</v>
-      </c>
-      <c r="H131">
-        <v>1801.4880000000001</v>
-      </c>
-      <c r="I131">
-        <v>2311</v>
-      </c>
-      <c r="J131">
-        <v>1805.2670000000001</v>
-      </c>
-      <c r="K131">
-        <v>2292</v>
-      </c>
-      <c r="L131">
-        <v>1801.454</v>
-      </c>
-      <c r="M131">
-        <v>2302</v>
-      </c>
-      <c r="N131">
-        <v>1803.5360000000001</v>
-      </c>
-      <c r="O131">
-        <v>2332</v>
-      </c>
-      <c r="P131">
-        <v>1801.5820000000001</v>
-      </c>
-      <c r="Q131">
-        <v>2307</v>
-      </c>
-      <c r="R131">
-        <v>1801.7349999999999</v>
-      </c>
-      <c r="S131">
-        <v>2332</v>
-      </c>
-      <c r="T131">
-        <v>1802.8720000000001</v>
-      </c>
-      <c r="U131">
-        <v>2283</v>
-      </c>
-      <c r="V131">
-        <v>1801.501</v>
-      </c>
-    </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B132" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132">
-        <v>11620</v>
-      </c>
-      <c r="D132">
-        <v>1335.578</v>
-      </c>
-      <c r="E132">
-        <v>11617</v>
-      </c>
-      <c r="F132">
-        <v>1406.856</v>
-      </c>
-      <c r="G132">
-        <v>11596</v>
-      </c>
-      <c r="H132">
-        <v>1428.347</v>
-      </c>
-      <c r="I132">
-        <v>11616</v>
-      </c>
-      <c r="J132">
-        <v>1343.126</v>
-      </c>
-      <c r="K132">
-        <v>11603</v>
-      </c>
-      <c r="L132">
-        <v>1326.4459999999999</v>
-      </c>
-      <c r="M132">
-        <v>11607</v>
-      </c>
-      <c r="N132">
-        <v>1277.1859999999999</v>
-      </c>
-      <c r="O132">
-        <v>11595</v>
-      </c>
-      <c r="P132">
-        <v>1323.0309999999999</v>
-      </c>
-      <c r="Q132">
-        <v>11630</v>
-      </c>
-      <c r="R132">
-        <v>1344.941</v>
-      </c>
-      <c r="S132">
-        <v>11597</v>
-      </c>
-      <c r="T132">
-        <v>1295.992</v>
-      </c>
-      <c r="U132">
-        <v>11617</v>
-      </c>
-      <c r="V132">
-        <v>1403.6279999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B133" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133">
-        <v>2283</v>
-      </c>
-      <c r="D133">
-        <v>1800.973</v>
-      </c>
-      <c r="E133">
-        <v>2312</v>
-      </c>
-      <c r="F133">
-        <v>1801.886</v>
-      </c>
-      <c r="G133">
-        <v>2311</v>
-      </c>
-      <c r="H133">
-        <v>1801.586</v>
-      </c>
-      <c r="I133">
-        <v>2283</v>
-      </c>
-      <c r="J133">
-        <v>1803.019</v>
-      </c>
-      <c r="K133">
-        <v>2292</v>
-      </c>
-      <c r="L133">
-        <v>1803.827</v>
-      </c>
-      <c r="M133">
-        <v>2292</v>
-      </c>
-      <c r="N133">
-        <v>1801.248</v>
-      </c>
-      <c r="O133">
-        <v>2266</v>
-      </c>
-      <c r="P133">
-        <v>1801.508</v>
-      </c>
-      <c r="Q133">
-        <v>2285</v>
-      </c>
-      <c r="R133">
-        <v>1801.1</v>
-      </c>
-      <c r="S133">
-        <v>2303</v>
-      </c>
-      <c r="T133">
-        <v>1801.1990000000001</v>
-      </c>
-      <c r="U133">
-        <v>2306</v>
-      </c>
-      <c r="V133">
-        <v>1802.9349999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134">
-        <v>2294</v>
-      </c>
-      <c r="D134">
-        <v>1801.5609999999999</v>
-      </c>
-      <c r="E134">
-        <v>2294</v>
-      </c>
-      <c r="F134">
-        <v>1802.6890000000001</v>
-      </c>
-      <c r="G134">
-        <v>2294</v>
-      </c>
-      <c r="H134">
-        <v>1802.758</v>
-      </c>
-      <c r="I134">
-        <v>2258</v>
-      </c>
-      <c r="J134">
-        <v>1801.5060000000001</v>
-      </c>
-      <c r="K134">
-        <v>2320</v>
-      </c>
-      <c r="L134">
-        <v>1802.0360000000001</v>
-      </c>
-      <c r="M134">
-        <v>2281</v>
-      </c>
-      <c r="N134">
-        <v>1801.8320000000001</v>
-      </c>
-      <c r="O134">
-        <v>2296</v>
-      </c>
-      <c r="P134">
-        <v>1801.4069999999999</v>
       </c>
     </row>
   </sheetData>
@@ -28340,10 +24883,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31026891-FF15-644A-9717-DFF19CE6C346}">
-  <dimension ref="A4:AB93"/>
+  <dimension ref="A4:AB89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C98" sqref="C98:W152"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -28353,11 +24896,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -33253,7 +29796,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
@@ -33342,7 +29885,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
@@ -33431,7 +29974,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
@@ -33520,7 +30063,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
@@ -33609,7 +30152,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
@@ -33698,7 +30241,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
@@ -33787,7 +30330,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
@@ -33876,7 +30419,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="0"/>
@@ -33965,7 +30508,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="0"/>
@@ -34054,7 +30597,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="0"/>
@@ -34143,7 +30686,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="0"/>
@@ -34232,7 +30775,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" ref="B71:B89" si="6">MAX(I71,K71,M71,O71,Q71,S71,U71,W71,Y71,AA71)</f>
@@ -34321,7 +30864,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="6"/>
@@ -34410,7 +30953,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="6"/>
@@ -34499,7 +31042,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="6"/>
@@ -34588,7 +31131,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="6"/>
@@ -34677,7 +31220,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="6"/>
@@ -34766,7 +31309,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="6"/>
@@ -34855,7 +31398,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="6"/>
@@ -34944,7 +31487,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="6"/>
@@ -35033,7 +31576,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="6"/>
@@ -35122,7 +31665,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="6"/>
@@ -35211,7 +31754,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="6"/>
@@ -35300,7 +31843,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="6"/>
@@ -35389,7 +31932,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="6"/>
@@ -35478,7 +32021,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="6"/>
@@ -35567,7 +32110,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="6"/>
@@ -35656,7 +32199,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="6"/>
@@ -35745,7 +32288,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="6"/>
@@ -35834,7 +32377,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="6"/>
@@ -35919,362 +32462,6 @@
       </c>
       <c r="AB89">
         <v>14.472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" ref="B90:B93" si="8">MAX(I90,K90,M90,O90,Q90,S90,U90,W90,Y90,AA90)</f>
-        <v>263573319</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" ref="C90:C93" si="9">AVERAGE(I90,K90,M90,O90,Q90,S90,U90,W90,Y90,AA90)</f>
-        <v>261523573.19999999</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ref="D90:D93" si="10">STDEV(J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90)</f>
-        <v>0.12922198815304112</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" ref="E90:E93" si="11">AVERAGE(J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90)</f>
-        <v>1802.7279000000003</v>
-      </c>
-      <c r="F90" s="1">
-        <f>IF(B90='Global Best'!$B87,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <f>('Global Best'!$B87-B90)/'Global Best'!$B87</f>
-        <v>2.0285459507598039E-2</v>
-      </c>
-      <c r="I90" s="5">
-        <v>260684186</v>
-      </c>
-      <c r="J90">
-        <v>1802.654</v>
-      </c>
-      <c r="K90" s="5">
-        <v>260638794</v>
-      </c>
-      <c r="L90">
-        <v>1802.934</v>
-      </c>
-      <c r="M90" s="5">
-        <v>262642514</v>
-      </c>
-      <c r="N90">
-        <v>1802.633</v>
-      </c>
-      <c r="O90" s="5">
-        <v>262145328</v>
-      </c>
-      <c r="P90">
-        <v>1802.818</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>260559952</v>
-      </c>
-      <c r="R90">
-        <v>1802.643</v>
-      </c>
-      <c r="S90" s="5">
-        <v>261809596</v>
-      </c>
-      <c r="T90">
-        <v>1802.7329999999999</v>
-      </c>
-      <c r="U90" s="5">
-        <v>261466981</v>
-      </c>
-      <c r="V90">
-        <v>1802.6369999999999</v>
-      </c>
-      <c r="W90" s="5">
-        <v>260808614</v>
-      </c>
-      <c r="X90">
-        <v>1802.55</v>
-      </c>
-      <c r="Y90" s="5">
-        <v>260906448</v>
-      </c>
-      <c r="Z90">
-        <v>1802.921</v>
-      </c>
-      <c r="AA90" s="5">
-        <v>263573319</v>
-      </c>
-      <c r="AB90">
-        <v>1802.7560000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="1">
-        <f t="shared" si="8"/>
-        <v>41213350</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="9"/>
-        <v>40621188.700000003</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="10"/>
-        <v>13.738095423958077</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="11"/>
-        <v>525.78809999999999</v>
-      </c>
-      <c r="F91" s="1">
-        <f>IF(B91='Global Best'!$B88,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G91" s="3">
-        <f>('Global Best'!$B88-B91)/'Global Best'!$B88</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="5">
-        <v>40746318</v>
-      </c>
-      <c r="J91">
-        <v>537.18200000000002</v>
-      </c>
-      <c r="K91" s="5">
-        <v>40302841</v>
-      </c>
-      <c r="L91">
-        <v>546.40700000000004</v>
-      </c>
-      <c r="M91" s="5">
-        <v>40600798</v>
-      </c>
-      <c r="N91">
-        <v>512.93200000000002</v>
-      </c>
-      <c r="O91" s="5">
-        <v>40817936</v>
-      </c>
-      <c r="P91">
-        <v>530.74400000000003</v>
-      </c>
-      <c r="Q91" s="5">
-        <v>40377590</v>
-      </c>
-      <c r="R91">
-        <v>520.54100000000005</v>
-      </c>
-      <c r="S91" s="5">
-        <v>41213350</v>
-      </c>
-      <c r="T91">
-        <v>531.01300000000003</v>
-      </c>
-      <c r="U91" s="5">
-        <v>40716194</v>
-      </c>
-      <c r="V91">
-        <v>508.67</v>
-      </c>
-      <c r="W91" s="5">
-        <v>40402011</v>
-      </c>
-      <c r="X91">
-        <v>516.30600000000004</v>
-      </c>
-      <c r="Y91" s="5">
-        <v>40966165</v>
-      </c>
-      <c r="Z91">
-        <v>543.05700000000002</v>
-      </c>
-      <c r="AA91" s="5">
-        <v>40068684</v>
-      </c>
-      <c r="AB91">
-        <v>511.029</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="1">
-        <f t="shared" si="8"/>
-        <v>2722</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="9"/>
-        <v>2714</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="10"/>
-        <v>0.15371044206554854</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" si="11"/>
-        <v>1807.0003000000002</v>
-      </c>
-      <c r="F92" s="1">
-        <f>IF(B92='Global Best'!$B89,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <f>('Global Best'!$B89-B92)/'Global Best'!$B89</f>
-        <v>5.6171983356449379E-2</v>
-      </c>
-      <c r="I92">
-        <v>2698</v>
-      </c>
-      <c r="J92">
-        <v>1807.1389999999999</v>
-      </c>
-      <c r="K92">
-        <v>2708</v>
-      </c>
-      <c r="L92">
-        <v>1806.9280000000001</v>
-      </c>
-      <c r="M92">
-        <v>2716</v>
-      </c>
-      <c r="N92">
-        <v>1806.9280000000001</v>
-      </c>
-      <c r="O92">
-        <v>2720</v>
-      </c>
-      <c r="P92">
-        <v>1806.94</v>
-      </c>
-      <c r="Q92">
-        <v>2710</v>
-      </c>
-      <c r="R92">
-        <v>1807.1179999999999</v>
-      </c>
-      <c r="S92">
-        <v>2710</v>
-      </c>
-      <c r="T92">
-        <v>1807.11</v>
-      </c>
-      <c r="U92">
-        <v>2722</v>
-      </c>
-      <c r="V92">
-        <v>1807.183</v>
-      </c>
-      <c r="W92">
-        <v>2718</v>
-      </c>
-      <c r="X92">
-        <v>1806.729</v>
-      </c>
-      <c r="Y92">
-        <v>2720</v>
-      </c>
-      <c r="Z92">
-        <v>1806.816</v>
-      </c>
-      <c r="AA92">
-        <v>2718</v>
-      </c>
-      <c r="AB92">
-        <v>1807.1120000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="1">
-        <f t="shared" si="8"/>
-        <v>454</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="9"/>
-        <v>447.6</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="10"/>
-        <v>8.1066026045988462</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" si="11"/>
-        <v>283.23829999999998</v>
-      </c>
-      <c r="F93" s="1">
-        <f>IF(B93='Global Best'!$B90,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G93" s="3">
-        <f>('Global Best'!$B90-B93)/'Global Best'!$B90</f>
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>448</v>
-      </c>
-      <c r="J93">
-        <v>290.53199999999998</v>
-      </c>
-      <c r="K93">
-        <v>446</v>
-      </c>
-      <c r="L93">
-        <v>278.78800000000001</v>
-      </c>
-      <c r="M93">
-        <v>446</v>
-      </c>
-      <c r="N93">
-        <v>276.01299999999998</v>
-      </c>
-      <c r="O93">
-        <v>452</v>
-      </c>
-      <c r="P93">
-        <v>292.19499999999999</v>
-      </c>
-      <c r="Q93">
-        <v>454</v>
-      </c>
-      <c r="R93">
-        <v>288.82799999999997</v>
-      </c>
-      <c r="S93">
-        <v>444</v>
-      </c>
-      <c r="T93">
-        <v>294.53699999999998</v>
-      </c>
-      <c r="U93">
-        <v>446</v>
-      </c>
-      <c r="V93">
-        <v>271.36700000000002</v>
-      </c>
-      <c r="W93">
-        <v>448</v>
-      </c>
-      <c r="X93">
-        <v>285.54500000000002</v>
-      </c>
-      <c r="Y93">
-        <v>446</v>
-      </c>
-      <c r="Z93">
-        <v>279.53399999999999</v>
-      </c>
-      <c r="AA93">
-        <v>446</v>
-      </c>
-      <c r="AB93">
-        <v>275.04399999999998</v>
       </c>
     </row>
   </sheetData>
